--- a/radaro_new/Books.xlsx
+++ b/radaro_new/Books.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspaces\Github\radar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\OuYuanchang\destop\单位工作\国防社\radar\radaro_new\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9600" activeTab="4"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9600" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="雷达原理" sheetId="2" r:id="rId1"/>
@@ -18,12 +18,12 @@
     <sheet name="雷达试验" sheetId="4" r:id="rId4"/>
     <sheet name="全集" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="515">
   <si>
     <t>机载雷达</t>
   </si>
@@ -1927,6 +1927,101 @@
   </si>
   <si>
     <t>M</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>OP</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>range</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>dp</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>op？</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>op</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>dp</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>（分组）</t>
+  </si>
+  <si>
+    <t>OP</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>分辨力类型</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>dp</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>上下位关系</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型与实例的关系</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型与属性的关系</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>父类与子类的关系</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性与子属性的关系</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>分组关系</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类关系</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性取值定义</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>整体与部分的关系</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型与属性</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -2520,9 +2615,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2851,132 +2949,132 @@
       <selection activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E8" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E9" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F10" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F11" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G12" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H13" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H14" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H15" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E16" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:7" x14ac:dyDescent="0.3">
       <c r="F17" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="4:7" x14ac:dyDescent="0.3">
       <c r="F18" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="19" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="4:7" x14ac:dyDescent="0.3">
       <c r="F19" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="4:7" x14ac:dyDescent="0.3">
       <c r="F20" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="21" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="4:7" x14ac:dyDescent="0.3">
       <c r="F21" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="22" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="4:7" x14ac:dyDescent="0.3">
       <c r="F22" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="23" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="4:7" x14ac:dyDescent="0.3">
       <c r="E23" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="24" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="4:7" x14ac:dyDescent="0.3">
       <c r="F24" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="25" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D25" t="s">
         <v>64</v>
       </c>
@@ -2984,577 +3082,577 @@
         <v>183</v>
       </c>
     </row>
-    <row r="26" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="4:7" x14ac:dyDescent="0.3">
       <c r="E27" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="28" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="4:7" x14ac:dyDescent="0.3">
       <c r="F28" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="29" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="4:7" x14ac:dyDescent="0.3">
       <c r="G29" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="30" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="4:7" x14ac:dyDescent="0.3">
       <c r="G30" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="31" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="4:7" x14ac:dyDescent="0.3">
       <c r="F31" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="32" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="4:7" x14ac:dyDescent="0.3">
       <c r="F32" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="33" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="5:7" x14ac:dyDescent="0.3">
       <c r="G33" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="34" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="5:7" x14ac:dyDescent="0.3">
       <c r="G34" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="35" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="5:7" x14ac:dyDescent="0.3">
       <c r="F35" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="36" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="5:7" x14ac:dyDescent="0.3">
       <c r="G36" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="37" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="5:7" x14ac:dyDescent="0.3">
       <c r="G37" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="38" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="5:7" x14ac:dyDescent="0.3">
       <c r="F38" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="39" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="5:7" x14ac:dyDescent="0.3">
       <c r="G39" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="40" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="5:7" x14ac:dyDescent="0.3">
       <c r="G40" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="41" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="5:7" x14ac:dyDescent="0.3">
       <c r="F41" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="42" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="5:7" x14ac:dyDescent="0.3">
       <c r="G42" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="43" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="5:7" x14ac:dyDescent="0.3">
       <c r="G43" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="44" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="5:7" x14ac:dyDescent="0.3">
       <c r="G44" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="45" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E45" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="46" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="5:7" x14ac:dyDescent="0.3">
       <c r="F46" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="47" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="5:7" x14ac:dyDescent="0.3">
       <c r="G47" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="48" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="5:7" x14ac:dyDescent="0.3">
       <c r="G48" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="49" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:7" x14ac:dyDescent="0.3">
       <c r="F49" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="50" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G50" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="51" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G51" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="52" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G52" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="53" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:7" x14ac:dyDescent="0.3">
       <c r="F53" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="54" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:7" x14ac:dyDescent="0.3">
       <c r="F54" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="55" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:7" x14ac:dyDescent="0.3">
       <c r="F55" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="56" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:7" x14ac:dyDescent="0.3">
       <c r="F56" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="57" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:7" x14ac:dyDescent="0.3">
       <c r="F57" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="58" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:7" x14ac:dyDescent="0.3">
       <c r="F58" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="59" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D59" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="60" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D60" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="61" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D61" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="62" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D62" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="63" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D63" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="64" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D70" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D71" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D72" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D74" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D75" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D76" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D78" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D79" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D80" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D81" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D82" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B85" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D89" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D90" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D91" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D92" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C93" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C94" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C95" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C96" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C97" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C98" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C99" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C100" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C101" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C102" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C103" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C104" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B105" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C106" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C107" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C108" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D109" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D110" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D111" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C112" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="113" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D113" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="114" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E114" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="115" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E115" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="116" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E116" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="117" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E117" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="118" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D118" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="119" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D119" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="120" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="120" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D120" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="121" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="121" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D121" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="122" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="122" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D122" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="123" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="123" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D123" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="124" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="124" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D124" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="125" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="125" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D125" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="126" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="126" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C126" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="127" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="127" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C127" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="128" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="128" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D128" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="129" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D129" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="130" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D130" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="131" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D131" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="132" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D132" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="133" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D133" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="134" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C134" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="135" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C135" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="136" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C136" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="137" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C137" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="138" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C138" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="139" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="139" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C139" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="140" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="140" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C140" t="s">
         <v>111</v>
       </c>
@@ -3574,9 +3672,9 @@
       <selection activeCell="A37" sqref="A37:XFD37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3584,7 +3682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -3592,7 +3690,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>4</v>
       </c>
@@ -3600,7 +3698,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>6</v>
       </c>
@@ -3608,7 +3706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>7</v>
       </c>
@@ -3619,7 +3717,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>10</v>
       </c>
@@ -3627,7 +3725,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>11</v>
       </c>
@@ -3641,7 +3739,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>14</v>
       </c>
@@ -3649,7 +3747,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>16</v>
       </c>
@@ -3657,12 +3755,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>19</v>
       </c>
@@ -3670,7 +3768,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>20</v>
       </c>
@@ -3678,7 +3776,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>22</v>
       </c>
@@ -3689,7 +3787,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>25</v>
       </c>
@@ -3697,7 +3795,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>26</v>
       </c>
@@ -3705,7 +3803,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>28</v>
       </c>
@@ -3713,7 +3811,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>30</v>
       </c>
@@ -3721,12 +3819,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>33</v>
       </c>
@@ -3737,22 +3835,22 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>39</v>
       </c>
@@ -3760,7 +3858,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>41</v>
       </c>
@@ -3771,7 +3869,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>43</v>
       </c>
@@ -3779,12 +3877,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>46</v>
       </c>
@@ -3792,27 +3890,27 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>52</v>
       </c>
@@ -3820,27 +3918,27 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>58</v>
       </c>
@@ -3859,349 +3957,349 @@
       <selection activeCell="C114" sqref="C114:H171"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D29" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E30" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E31" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E32" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E33" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D34" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D36" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E37" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E38" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E39" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D40" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D42" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D43" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D44" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="45" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D45" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D46" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="47" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="48" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D48" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D49" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D51" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D52" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D53" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D54" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D55" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="57" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D57" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="58" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D58" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="59" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D59" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="60" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="61" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D61" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="62" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D62" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="63" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D63" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="64" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D64" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D65" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>293</v>
       </c>
@@ -4209,512 +4307,512 @@
         <v>294</v>
       </c>
     </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B82" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D84" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D85" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D86" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D87" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D88" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D89" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D90" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C91" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D92" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D93" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D94" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D95" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D96" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="97" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C97" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="98" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D98" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="99" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D99" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="100" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D100" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="101" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D101" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="102" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D102" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="103" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C103" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="104" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D104" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="105" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D105" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="106" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C106" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="107" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C107" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="108" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C108" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="109" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D109" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="110" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D110" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="111" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D111" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="112" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D112" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="113" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B113" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="114" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C114" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="115" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:6" x14ac:dyDescent="0.3">
       <c r="D115" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="116" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:6" x14ac:dyDescent="0.3">
       <c r="E116" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="117" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:6" x14ac:dyDescent="0.3">
       <c r="E117" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="118" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:6" x14ac:dyDescent="0.3">
       <c r="E118" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="119" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F119" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="120" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F120" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="121" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F121" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="122" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F122" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="123" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F123" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="124" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:6" x14ac:dyDescent="0.3">
       <c r="E124" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="125" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F125" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="126" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F126" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="127" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F127" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="128" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F128" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="129" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="129" spans="3:6" x14ac:dyDescent="0.3">
       <c r="F129" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="130" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="130" spans="3:6" x14ac:dyDescent="0.3">
       <c r="F130" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="131" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="131" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D131" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="132" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="132" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D132" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="133" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="133" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D133" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="134" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="134" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D134" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="135" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="135" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D135" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="136" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="136" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D136" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="137" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="137" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C137" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="138" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="138" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D138" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="139" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="139" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D139" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="140" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="140" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D140" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="141" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="141" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D141" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="142" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="142" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C142" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="143" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="143" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D143" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="144" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="144" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D144" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="145" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="145" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D145" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="146" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="146" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D146" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="147" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="147" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D147" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="148" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="148" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D148" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="149" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="149" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C149" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="150" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="150" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D150" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="151" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="151" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D151" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="152" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="152" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D152" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="153" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="153" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C153" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="154" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="154" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D154" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="155" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="155" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D155" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="156" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="156" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D156" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="157" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="157" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D157" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="158" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="158" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D158" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="159" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="159" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C159" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="160" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="160" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D160" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="161" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="161" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D161" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="162" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="162" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D162" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="163" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="163" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D163" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="164" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="164" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D164" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="165" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="165" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C165" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="166" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="166" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D166" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="167" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="167" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D167" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="168" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="168" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D168" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="169" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="169" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D169" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="170" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="170" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D170" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="171" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="171" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C171" t="s">
         <v>226</v>
       </c>
@@ -4734,589 +4832,589 @@
       <selection sqref="A1:J123"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E8" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E9" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E11" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E12" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E13" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E14" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E16" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E17" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E18" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E22" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E23" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E24" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D25" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D27" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D29" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E30" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E31" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="32" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E32" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E33" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E34" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E35" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E36" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E37" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E38" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D39" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E40" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E41" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E42" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E43" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="45" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D45" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D46" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="47" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D47" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="48" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D48" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D49" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E50" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="51" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:6" x14ac:dyDescent="0.3">
       <c r="F51" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="52" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:6" x14ac:dyDescent="0.3">
       <c r="F52" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="53" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:6" x14ac:dyDescent="0.3">
       <c r="F53" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="54" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:6" x14ac:dyDescent="0.3">
       <c r="F54" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="55" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:6" x14ac:dyDescent="0.3">
       <c r="F55" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="56" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:6" x14ac:dyDescent="0.3">
       <c r="F56" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="57" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:6" x14ac:dyDescent="0.3">
       <c r="F57" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="58" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:6" x14ac:dyDescent="0.3">
       <c r="F58" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="59" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:6" x14ac:dyDescent="0.3">
       <c r="F59" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="60" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="61" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="62" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="63" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D63" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="64" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E64" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F65" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F66" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F67" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
       <c r="E68" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F69" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F70" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:6" x14ac:dyDescent="0.3">
       <c r="D71" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:6" x14ac:dyDescent="0.3">
       <c r="E72" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:6" x14ac:dyDescent="0.3">
       <c r="E73" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B80" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B87" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B88" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C89" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C90" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B92" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C93" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C94" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C95" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C96" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B99" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C100" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C101" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C102" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C103" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C104" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C105" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B107" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B108" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B109" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B110" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B113" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C114" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C115" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C116" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B117" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C118" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C119" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C120" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B122" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B123" t="s">
         <v>489</v>
       </c>
@@ -5329,1689 +5427,1813 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H340"/>
+  <dimension ref="A1:N341"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
-      <selection activeCell="C170" sqref="C170:C173"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.6640625" style="1"/>
+    <col min="2" max="2" width="8.4140625" customWidth="1"/>
+    <col min="13" max="13" width="12.58203125" customWidth="1"/>
+    <col min="14" max="14" width="13.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="C3" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C3" t="s">
+      <c r="H3" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C4" t="s">
+      <c r="H4" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C5" t="s">
+      <c r="H5" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C6" t="s">
+      <c r="H6" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C7" t="s">
+      <c r="H7" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C8" t="s">
+      <c r="H8" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C9" t="s">
+      <c r="H9" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C10" t="s">
+      <c r="H10" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C11" t="s">
+      <c r="H11" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C12" t="s">
+      <c r="H12" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C13" t="s">
+      <c r="H13" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C14" t="s">
+      <c r="H14" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
+      <c r="H15" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C16" t="s">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C17" t="s">
+      <c r="H17" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C18" t="s">
+      <c r="H18" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C19" t="s">
+      <c r="H19" t="s">
+        <v>500</v>
+      </c>
+      <c r="N19" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C20" t="s">
+      <c r="H20" t="s">
+        <v>500</v>
+      </c>
+      <c r="N20" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D21" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D21" t="s">
+      <c r="H21" t="s">
+        <v>502</v>
+      </c>
+      <c r="I21" t="s">
+        <v>503</v>
+      </c>
+      <c r="M21" t="s">
+        <v>505</v>
+      </c>
+      <c r="N21" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="J22" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D22" t="s">
+      <c r="N22" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="J23" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D23" t="s">
+      <c r="N23" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="J24" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D24" t="s">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="J25" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C25" t="s">
+      <c r="M25" t="s">
+        <v>511</v>
+      </c>
+      <c r="N25" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D26" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C26" t="s">
+      <c r="N26" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D27" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C27" t="s">
+      <c r="N27" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C28" t="s">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D29" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C29" t="s">
+      <c r="M29" t="s">
+        <v>513</v>
+      </c>
+      <c r="N29" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D30" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C30" t="s">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D31" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C31" t="s">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D32" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C32" t="s">
+    <row r="33" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="D33" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C33" t="s">
+    <row r="34" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="D34" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C34" t="s">
+    <row r="35" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="D35" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C35" t="s">
+    <row r="36" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="D36" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C36" t="s">
+    <row r="37" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="D37" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C37" t="s">
+    <row r="38" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="D38" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C38" t="s">
+    <row r="39" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="D39" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B39" t="s">
+    <row r="40" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C40" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C40" t="s">
+    <row r="41" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="D41" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="D41" t="s">
+    <row r="42" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="E42" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E42" t="s">
+    <row r="43" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="F43" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="F43" t="s">
+    <row r="44" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="G44" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="F44" t="s">
+    <row r="45" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="G45" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="F45" t="s">
+    <row r="46" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="G46" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="F46" t="s">
+    <row r="47" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="G47" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="F47" t="s">
+    <row r="48" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="G48" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="F48" t="s">
+    <row r="49" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="G49" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="F49" t="s">
+    <row r="50" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="G50" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="F50" t="s">
+    <row r="51" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="G51" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="51" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="F51" t="s">
+    <row r="52" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="G52" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="52" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="F52" t="s">
+    <row r="53" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="G53" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="53" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="F53" t="s">
+    <row r="54" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="G54" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="54" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="F54" t="s">
+    <row r="55" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="G55" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="55" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="F55" t="s">
+    <row r="56" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="G56" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="56" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="F56" t="s">
+    <row r="57" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="G57" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="57" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="F57" t="s">
+    <row r="58" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="G58" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="58" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="D58" t="s">
+    <row r="59" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="E59" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="59" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="D59" t="s">
+    <row r="60" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="E60" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="60" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="D60" t="s">
+    <row r="61" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="E61" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="61" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="D61" t="s">
+    <row r="62" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="E62" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="62" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="D62" t="s">
+    <row r="63" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="E63" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="63" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C63" t="s">
+    <row r="64" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D64" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="64" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="D64" t="s">
+    <row r="65" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="E65" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="65" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E65" t="s">
+    <row r="66" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="F66" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="66" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E66" t="s">
+    <row r="67" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="F67" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="67" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E67" t="s">
+    <row r="68" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="F68" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="68" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E68" t="s">
+    <row r="69" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="F69" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="69" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D69" t="s">
+    <row r="70" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="E70" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="70" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D70" t="s">
+    <row r="71" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="E71" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="71" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D71" t="s">
+    <row r="72" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="E72" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="72" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D72" t="s">
+    <row r="73" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="E73" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="73" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D73" t="s">
+    <row r="74" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="E74" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="74" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D74" t="s">
+    <row r="75" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="E75" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="75" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D75" t="s">
+    <row r="76" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="E76" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="76" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D76" t="s">
+    <row r="77" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="E77" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="77" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C77" t="s">
+    <row r="78" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D78" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="78" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D78" t="s">
+    <row r="79" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="E79" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="79" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D79" t="s">
+    <row r="80" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="E80" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="80" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D80" t="s">
+    <row r="81" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E81" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="81" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D81" t="s">
+    <row r="82" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E82" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="82" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D82" t="s">
+    <row r="83" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E83" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="83" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C83" t="s">
+    <row r="84" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D84" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="84" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D84" t="s">
+    <row r="85" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E85" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="85" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D85" t="s">
+    <row r="86" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E86" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="86" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D86" t="s">
+    <row r="87" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E87" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="87" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C87" t="s">
+    <row r="88" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D88" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="88" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D88" t="s">
+    <row r="89" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E89" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="89" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D89" t="s">
+    <row r="90" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E90" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="90" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D90" t="s">
+    <row r="91" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E91" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="91" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D91" t="s">
+    <row r="92" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E92" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="92" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D92" t="s">
+    <row r="93" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E93" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="93" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D93" t="s">
+    <row r="94" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E94" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="94" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C94" t="s">
+    <row r="95" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D95" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="95" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C95" t="s">
+    <row r="96" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D96" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="96" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C96" t="s">
+    <row r="97" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D97" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C97" t="s">
+    <row r="98" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D98" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C98" t="s">
+    <row r="99" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D99" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C99" t="s">
+    <row r="100" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D100" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C100" t="s">
+    <row r="101" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D101" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C101" t="s">
+    <row r="102" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D102" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C102" t="s">
+    <row r="103" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D103" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C103" t="s">
+    <row r="104" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D104" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C104" t="s">
+    <row r="105" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D105" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C105" t="s">
+    <row r="106" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D106" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C106" t="s">
+    <row r="107" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D107" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C107" t="s">
+    <row r="108" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D108" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B108" t="s">
+    <row r="109" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C109" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C109" t="s">
+    <row r="110" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D110" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D110" t="s">
+    <row r="111" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E111" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D111" t="s">
+    <row r="112" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E112" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D112" t="s">
+    <row r="113" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E113" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="113" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D113" t="s">
+    <row r="114" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E114" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="114" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="E114" t="s">
+    <row r="115" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="F115" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="115" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="E115" t="s">
+    <row r="116" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="F116" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="116" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="F116" t="s">
+    <row r="117" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="G117" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="117" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="F117" t="s">
+    <row r="118" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="G118" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="118" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="G118" t="s">
+    <row r="119" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="H119" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="119" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="H119" t="s">
+    <row r="120" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="I120" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="120" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="H120" t="s">
+    <row r="121" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="I121" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="121" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="H121" t="s">
+    <row r="122" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="I122" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="122" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="E122" t="s">
+    <row r="123" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="F123" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="123" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="F123" t="s">
+    <row r="124" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="G124" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="124" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="F124" t="s">
+    <row r="125" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="G125" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="125" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="F125" t="s">
+    <row r="126" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="G126" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="126" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="F126" t="s">
+    <row r="127" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="G127" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="127" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="F127" t="s">
+    <row r="128" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="G128" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="128" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="F128" t="s">
+    <row r="129" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="G129" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="129" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="E129" t="s">
+    <row r="130" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="F130" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="130" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="F130" t="s">
+    <row r="131" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="G131" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="131" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D131" t="s">
+    <row r="132" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E132" t="s">
         <v>64</v>
       </c>
-      <c r="F131" t="s">
+      <c r="G132" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="132" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D132" t="s">
+    <row r="133" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E133" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="133" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="E133" t="s">
+    <row r="134" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="F134" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="134" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="F134" t="s">
+    <row r="135" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="G135" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="135" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="G135" t="s">
+    <row r="136" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="H136" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="136" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="G136" t="s">
+    <row r="137" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="H137" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="137" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="F137" t="s">
+    <row r="138" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="G138" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="138" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="F138" t="s">
+    <row r="139" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="G139" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="139" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="G139" t="s">
+    <row r="140" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="H140" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="140" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="G140" t="s">
+    <row r="141" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="H141" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="141" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="F141" t="s">
+    <row r="142" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="G142" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="142" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="G142" t="s">
+    <row r="143" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="H143" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="143" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="G143" t="s">
+    <row r="144" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="H144" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="144" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="F144" t="s">
+    <row r="145" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="G145" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="145" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="G145" t="s">
+    <row r="146" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="H146" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="146" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="G146" t="s">
+    <row r="147" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="H147" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="147" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="F147" t="s">
+    <row r="148" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="G148" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="148" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="G148" t="s">
+    <row r="149" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="H149" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="149" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="G149" t="s">
+    <row r="150" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="H150" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="150" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="G150" t="s">
+    <row r="151" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="H151" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="151" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E151" t="s">
+    <row r="152" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F152" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="152" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="F152" t="s">
+    <row r="153" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="G153" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="153" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="G153" t="s">
+    <row r="154" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="H154" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="154" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="G154" t="s">
+    <row r="155" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="H155" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="155" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="F155" t="s">
+    <row r="156" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="G156" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="156" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="G156" t="s">
+    <row r="157" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="H157" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="157" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="G157" t="s">
+    <row r="158" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="H158" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="158" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="G158" t="s">
+    <row r="159" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="H159" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="159" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="F159" t="s">
+    <row r="160" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="G160" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="160" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="F160" t="s">
+    <row r="161" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="G161" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="161" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="F161" t="s">
+    <row r="162" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="G162" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="162" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="F162" t="s">
+    <row r="163" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="G163" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="163" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="F163" t="s">
+    <row r="164" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="G164" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="164" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="F164" t="s">
+    <row r="165" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="G165" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="165" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="D165" t="s">
+    <row r="166" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="E166" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="166" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="D166" t="s">
+    <row r="167" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="E167" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="167" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="D167" t="s">
+    <row r="168" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="E168" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="168" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="D168" t="s">
+    <row r="169" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="E169" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="169" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="D169" t="s">
+    <row r="170" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="E170" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="170" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C170" t="s">
+    <row r="171" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="D171" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="171" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C171" t="s">
+    <row r="172" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="D172" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="172" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C172" t="s">
+    <row r="173" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="D173" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="173" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C173" t="s">
+    <row r="174" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="D174" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="174" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B174" t="s">
+    <row r="175" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C175" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="175" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C175" t="s">
+    <row r="176" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="D176" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="176" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="D176" t="s">
+    <row r="177" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E177" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="177" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D177" t="s">
+    <row r="178" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E178" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="178" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D178" t="s">
+    <row r="179" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E179" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="179" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D179" t="s">
+    <row r="180" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E180" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="180" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D180" t="s">
+    <row r="181" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E181" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="181" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D181" t="s">
+    <row r="182" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E182" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="182" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D182" t="s">
+    <row r="183" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E183" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="183" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C183" t="s">
+    <row r="184" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D184" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="184" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D184" t="s">
+    <row r="185" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E185" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="185" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D185" t="s">
+    <row r="186" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E186" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="186" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D186" t="s">
+    <row r="187" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E187" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="187" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D187" t="s">
+    <row r="188" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E188" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="188" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C188" t="s">
+    <row r="189" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D189" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="189" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D189" t="s">
+    <row r="190" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E190" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="190" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D190" t="s">
+    <row r="191" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E191" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="191" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D191" t="s">
+    <row r="192" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E192" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="192" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D192" t="s">
+    <row r="193" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E193" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="193" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D193" t="s">
+    <row r="194" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E194" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="194" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D194" t="s">
+    <row r="195" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E195" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="195" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C195" t="s">
+    <row r="196" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D196" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="196" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D196" t="s">
+    <row r="197" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E197" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="197" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D197" t="s">
+    <row r="198" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E198" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="198" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D198" t="s">
+    <row r="199" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E199" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="199" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C199" t="s">
+    <row r="200" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D200" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="200" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D200" t="s">
+    <row r="201" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E201" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="201" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D201" t="s">
+    <row r="202" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E202" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="202" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D202" t="s">
+    <row r="203" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E203" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="203" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D203" t="s">
+    <row r="204" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E204" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="204" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D204" t="s">
+    <row r="205" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E205" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="205" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C205" t="s">
+    <row r="206" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D206" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="206" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D206" t="s">
+    <row r="207" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E207" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="207" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D207" t="s">
+    <row r="208" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E208" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="208" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D208" t="s">
+    <row r="209" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E209" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D209" t="s">
+    <row r="210" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E210" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D210" t="s">
+    <row r="211" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E211" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C211" t="s">
+    <row r="212" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D212" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D212" t="s">
+    <row r="213" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E213" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D213" t="s">
+    <row r="214" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E214" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D214" t="s">
+    <row r="215" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E215" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D215" t="s">
+    <row r="216" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E216" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D216" t="s">
+    <row r="217" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E217" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C217" t="s">
+    <row r="218" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D218" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A218" t="s">
+    <row r="219" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B219" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B219" t="s">
+    <row r="220" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C220" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B220" t="s">
+    <row r="221" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C221" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B221" t="s">
+    <row r="222" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C222" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C222" t="s">
+    <row r="223" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D223" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D223" t="s">
+    <row r="224" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E224" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E224" t="s">
+    <row r="225" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="F225" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="225" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E225" t="s">
+    <row r="226" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="F226" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="226" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E226" t="s">
+    <row r="227" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="F227" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="227" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D227" t="s">
+    <row r="228" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E228" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="228" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E228" t="s">
+    <row r="229" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="F229" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="229" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E229" t="s">
+    <row r="230" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="F230" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="230" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E230" t="s">
+    <row r="231" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="F231" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="231" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E231" t="s">
+    <row r="232" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="F232" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="232" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D232" t="s">
+    <row r="233" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E233" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="233" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E233" t="s">
+    <row r="234" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="F234" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="234" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E234" t="s">
+    <row r="235" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="F235" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="235" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E235" t="s">
+    <row r="236" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="F236" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="236" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D236" t="s">
+    <row r="237" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E237" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="237" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D237" t="s">
+    <row r="238" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E238" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="238" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D238" t="s">
+    <row r="239" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E239" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="239" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E239" t="s">
+    <row r="240" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="F240" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="240" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E240" t="s">
+    <row r="241" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="F241" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="241" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E241" t="s">
+    <row r="242" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="F242" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="242" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D242" t="s">
+    <row r="243" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="E243" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="243" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D243" t="s">
+    <row r="244" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="E244" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="244" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D244" t="s">
+    <row r="245" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="E245" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="245" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C245" t="s">
+    <row r="246" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D246" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="246" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D246" t="s">
+    <row r="247" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="E247" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="247" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E247" t="s">
+    <row r="248" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="F248" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="248" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E248" t="s">
+    <row r="249" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="F249" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="249" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E249" t="s">
+    <row r="250" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="F250" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="250" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E250" t="s">
+    <row r="251" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="F251" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="251" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E251" t="s">
+    <row r="252" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="F252" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="252" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E252" t="s">
+    <row r="253" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="F253" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="253" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E253" t="s">
+    <row r="254" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="F254" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="254" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E254" t="s">
+    <row r="255" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="F255" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="255" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E255" t="s">
+    <row r="256" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="F256" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="256" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D256" t="s">
+    <row r="257" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="E257" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="257" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="E257" t="s">
+    <row r="258" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="F258" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="258" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="E258" t="s">
+    <row r="259" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="F259" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="259" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="E259" t="s">
+    <row r="260" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="F260" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="260" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="E260" t="s">
+    <row r="261" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="F261" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="261" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C261" t="s">
+    <row r="262" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D262" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="262" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="D262" t="s">
+    <row r="263" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="E263" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="263" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="D263" t="s">
+    <row r="264" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="E264" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="264" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="D264" t="s">
+    <row r="265" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="E265" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="265" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="D265" t="s">
+    <row r="266" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="E266" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="266" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="D266" t="s">
+    <row r="267" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="E267" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="267" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="E267" t="s">
+    <row r="268" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="F268" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="268" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="F268" t="s">
+    <row r="269" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="G269" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="269" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="F269" t="s">
+    <row r="270" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="G270" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="270" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="F270" t="s">
+    <row r="271" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="G271" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="271" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="F271" t="s">
+    <row r="272" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="G272" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="272" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="F272" t="s">
+    <row r="273" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="G273" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="273" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="F273" t="s">
+    <row r="274" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="G274" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="274" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="F274" t="s">
+    <row r="275" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="G275" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="275" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="F275" t="s">
+    <row r="276" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="G276" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="276" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="F276" t="s">
+    <row r="277" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="G277" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="277" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C277" t="s">
+    <row r="278" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D278" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="278" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C278" t="s">
+    <row r="279" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D279" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="279" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C279" t="s">
+    <row r="280" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D280" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="280" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="D280" t="s">
+    <row r="281" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="E281" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="281" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="E281" t="s">
+    <row r="282" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="F282" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="282" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="F282" t="s">
+    <row r="283" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="G283" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="283" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="F283" t="s">
+    <row r="284" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="G284" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="284" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="F284" t="s">
+    <row r="285" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="G285" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="285" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="E285" t="s">
+    <row r="286" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="F286" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="286" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="F286" t="s">
+    <row r="287" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="G287" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="287" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="F287" t="s">
+    <row r="288" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="G288" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="288" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="D288" t="s">
+    <row r="289" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E289" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E289" t="s">
+    <row r="290" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F290" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E290" t="s">
+    <row r="291" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F291" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C292" t="s">
+    <row r="293" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D293" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C293" t="s">
+    <row r="294" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D294" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C294" t="s">
+    <row r="295" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D295" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B297" t="s">
+    <row r="298" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C298" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C298" t="s">
+    <row r="299" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D299" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C299" t="s">
+    <row r="300" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D300" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C300" t="s">
+    <row r="301" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D301" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C301" t="s">
+    <row r="302" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D302" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C302" t="s">
+    <row r="303" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D303" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A303" t="s">
+    <row r="304" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B304" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B304" t="s">
+    <row r="305" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C305" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B305" t="s">
+    <row r="306" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C306" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C306" t="s">
+    <row r="307" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D307" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C307" t="s">
+    <row r="308" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D308" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A308" t="s">
+    <row r="309" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B309" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B309" t="s">
+    <row r="310" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C310" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C310" t="s">
+    <row r="311" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D311" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C311" t="s">
+    <row r="312" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D312" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C312" t="s">
+    <row r="313" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D313" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C313" t="s">
+    <row r="314" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D314" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B316" t="s">
+    <row r="317" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C317" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C317" t="s">
+    <row r="318" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D318" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C318" t="s">
+    <row r="319" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D319" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C319" t="s">
+    <row r="320" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D320" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C320" t="s">
+    <row r="321" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D321" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C321" t="s">
+    <row r="322" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D322" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C322" t="s">
+    <row r="323" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D323" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A323" t="s">
+    <row r="324" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B324" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B324" t="s">
+    <row r="325" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C325" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B325" t="s">
+    <row r="326" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C326" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B326" t="s">
+    <row r="327" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C327" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B327" t="s">
+    <row r="328" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C328" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A329" t="s">
+    <row r="330" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B330" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B330" t="s">
+    <row r="331" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C331" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C331" t="s">
+    <row r="332" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D332" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C332" t="s">
+    <row r="333" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D333" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C333" t="s">
+    <row r="334" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D334" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B334" t="s">
+    <row r="335" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C335" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C335" t="s">
+    <row r="336" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D336" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C336" t="s">
+    <row r="337" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D337" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C337" t="s">
+    <row r="338" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D338" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A338" t="s">
+    <row r="339" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B339" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B339" t="s">
+    <row r="340" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C340" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B340" t="s">
+    <row r="341" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C341" t="s">
         <v>489</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>